--- a/InputData/trans/BPoEFUbVT/BAU Perc of Each Fuel Used by Veh Tech.xlsx
+++ b/InputData/trans/BPoEFUbVT/BAU Perc of Each Fuel Used by Veh Tech.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\US_EPS\InputData\trans\BPoEFUbVT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\US-EPS\InputData\trans\BPoEFUbVT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C75B65C-EC4D-428B-B57C-9827E785CE4F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778F7B7F-2541-4FE6-9089-9809020E61FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="85" activeTab="88" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1635" yWindow="1245" windowWidth="20265" windowHeight="15810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="426">
   <si>
     <t>BPoEFUbVT BAU Perc of Each Fuel Used by Veh Technology</t>
   </si>
@@ -276,9 +276,6 @@
     <t>Table 17</t>
   </si>
   <si>
-    <t>https://www.eia.gov/outlooks/aeo/excel/aeotab_17.xlsx</t>
-  </si>
-  <si>
     <t>fraction of electricity used by plug-in hybrids</t>
   </si>
   <si>
@@ -390,13 +387,7 @@
     <t>Percentage Fuel Use (dimensionless)</t>
   </si>
   <si>
-    <t>Annual Energy Outlook 2020</t>
-  </si>
-  <si>
     <t>Table 36</t>
-  </si>
-  <si>
-    <t>https://www.eia.gov/outlooks/aeo/supplement/excel/suptab_36.xlsx</t>
   </si>
   <si>
     <t>Table 36.  Transportation Sector Energy Use by Fuel Type Within a Mode</t>
@@ -1400,6 +1391,12 @@
   <si>
     <t>24-AEO2021.62.highogs-d120120a</t>
   </si>
+  <si>
+    <t>Annual Energy Outlook 2021</t>
+  </si>
+  <si>
+    <t>https://www.eia.gov/outlooks/aeo/index.php</t>
+  </si>
 </sst>
 </file>
 
@@ -1407,7 +1404,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -1559,7 +1556,7 @@
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1926,7 +1923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1955,22 +1952,22 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="8">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>90</v>
+        <v>424</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
-        <v>92</v>
+        <v>425</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1985,17 +1982,17 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="8">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>90</v>
+        <v>424</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>52</v>
+        <v>425</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2005,32 +2002,32 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2040,125 +2037,122 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2180,7 +2174,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <f>'Biodiesel Fraction'!D6</f>
@@ -3057,7 +3051,7 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3155,7 +3149,7 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3253,7 +3247,7 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3372,7 +3366,7 @@
   <sheetData>
     <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <f>'AEO 36'!E1</f>
@@ -4284,7 +4278,7 @@
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -4382,7 +4376,7 @@
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -4480,7 +4474,7 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -4602,7 +4596,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <f>'AEO 36'!E1</f>
@@ -5419,7 +5413,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -5517,7 +5511,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -5615,7 +5609,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -5734,7 +5728,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <f>'AEO 36'!E1</f>
@@ -6551,7 +6545,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -6649,7 +6643,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -6747,7 +6741,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -6881,7 +6875,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <v>2019</v>
@@ -7689,7 +7683,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -7790,7 +7784,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -7891,7 +7885,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -8013,7 +8007,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <v>2019</v>
@@ -8821,7 +8815,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -8922,7 +8916,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -9023,7 +9017,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -9145,7 +9139,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <f>'AEO 36'!E1</f>
@@ -10030,7 +10024,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -10128,7 +10122,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -10226,7 +10220,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -10348,7 +10342,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <f>'Biodiesel Fraction'!D6</f>
@@ -11225,7 +11219,7 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -11323,7 +11317,7 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -11421,7 +11415,7 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -11540,7 +11534,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <f>'Biodiesel Fraction'!D6</f>
@@ -12456,7 +12450,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -12554,7 +12548,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -12652,7 +12646,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -12869,38 +12863,38 @@
         <v>2050</v>
       </c>
       <c r="AJ1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D14" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E14">
         <v>2020</v>
@@ -12996,7 +12990,7 @@
         <v>2050</v>
       </c>
       <c r="AJ14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
@@ -13004,13 +12998,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C15" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D15" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E15">
         <v>13684.958008</v>
@@ -13111,16 +13105,16 @@
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C16" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D16" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E16">
         <v>13581.067383</v>
@@ -13221,16 +13215,16 @@
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C17" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D17" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E17">
         <v>28.416105000000002</v>
@@ -13331,16 +13325,16 @@
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D18" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E18">
         <v>50.426529000000002</v>
@@ -13441,16 +13435,16 @@
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C19" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D19" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E19">
         <v>2.8876580000000001</v>
@@ -13551,16 +13545,16 @@
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D20" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E20">
         <v>2.8460239999999999</v>
@@ -13661,16 +13655,16 @@
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D21" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E21">
         <v>19.048065000000001</v>
@@ -13771,16 +13765,16 @@
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C22" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D22" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E22">
         <v>0.26691700000000002</v>
@@ -13881,16 +13875,16 @@
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B23" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C23" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D23" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E23">
         <v>800.46844499999997</v>
@@ -13991,16 +13985,16 @@
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B24" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C24" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D24" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E24">
         <v>537.63922100000002</v>
@@ -14101,16 +14095,16 @@
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B25" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C25" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D25" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E25">
         <v>5.2456569999999996</v>
@@ -14211,16 +14205,16 @@
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C26" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D26" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E26">
         <v>256.50799599999999</v>
@@ -14321,16 +14315,16 @@
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B27" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C27" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D27" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E27">
         <v>0.192105</v>
@@ -14431,16 +14425,16 @@
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B28" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C28" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D28" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E28">
         <v>0.83304999999999996</v>
@@ -14541,16 +14535,16 @@
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B29" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C29" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D29" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E29">
         <v>5.0416999999999997E-2</v>
@@ -14651,16 +14645,16 @@
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B30" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C30" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D30" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -14761,16 +14755,16 @@
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B31" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C31" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D31" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E31">
         <v>5217.8579099999997</v>
@@ -14871,16 +14865,16 @@
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B32" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C32" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D32" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E32">
         <v>519.87561000000005</v>
@@ -14981,16 +14975,16 @@
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B33" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C33" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D33" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E33">
         <v>4646.5361329999996</v>
@@ -15091,16 +15085,16 @@
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B34" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C34" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D34" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E34">
         <v>47.953029999999998</v>
@@ -15201,16 +15195,16 @@
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B35" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C35" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D35" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E35">
         <v>1.628536</v>
@@ -15311,16 +15305,16 @@
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B36" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C36" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D36" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E36">
         <v>1.6276900000000001</v>
@@ -15421,16 +15415,16 @@
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B37" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C37" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D37" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E37">
         <v>0.104337</v>
@@ -15531,16 +15525,16 @@
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B38" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C38" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D38" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E38">
         <v>0.13279199999999999</v>
@@ -15641,16 +15635,16 @@
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B39" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C39" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D39" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E39">
         <v>432.32916299999999</v>
@@ -15751,16 +15745,16 @@
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B40" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C40" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D40" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E40">
         <v>431.86648600000001</v>
@@ -15861,16 +15855,16 @@
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B41" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C41" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D41" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -15971,16 +15965,16 @@
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B42" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C42" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D42" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -16081,16 +16075,16 @@
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B43" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C43" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D43" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E43">
         <v>0.462669</v>
@@ -16194,13 +16188,13 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C44" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D44" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E44">
         <v>77.343406999999999</v>
@@ -16301,16 +16295,16 @@
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B45" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C45" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D45" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E45">
         <v>75.191635000000005</v>
@@ -16411,16 +16405,16 @@
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B46" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C46" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D46" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E46">
         <v>1.7463169999999999</v>
@@ -16521,16 +16515,16 @@
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B47" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C47" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D47" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -16631,16 +16625,16 @@
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B48" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C48" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D48" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E48">
         <v>0.40545300000000001</v>
@@ -16744,13 +16738,13 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C49" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D49" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E49">
         <v>855.88696300000004</v>
@@ -16851,16 +16845,16 @@
     </row>
     <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B50" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C50" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D50" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E50">
         <v>425.03616299999999</v>
@@ -16961,16 +16955,16 @@
     </row>
     <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B51" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C51" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D51" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E51">
         <v>413.53491200000002</v>
@@ -17071,16 +17065,16 @@
     </row>
     <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B52" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C52" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D52" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -17181,16 +17175,16 @@
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B53" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C53" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D53" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E53">
         <v>17.315902999999999</v>
@@ -17294,13 +17288,13 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C54" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D54" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E54">
         <v>1860.4852289999999</v>
@@ -17401,16 +17395,16 @@
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B55" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C55" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D55" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E55">
         <v>1838.034302</v>
@@ -17511,16 +17505,16 @@
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B56" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C56" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D56" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E56">
         <v>22.450932999999999</v>
@@ -17624,13 +17618,13 @@
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C57" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D57" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E57">
         <v>535.96636999999998</v>
@@ -17731,16 +17725,16 @@
     </row>
     <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B58" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C58" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D58" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E58">
         <v>401.72967499999999</v>
@@ -17841,16 +17835,16 @@
     </row>
     <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B59" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C59" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D59" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E59">
         <v>19.229748000000001</v>
@@ -17951,16 +17945,16 @@
     </row>
     <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B60" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C60" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D60" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E60">
         <v>115.006958</v>
@@ -18064,13 +18058,13 @@
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C61" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D61" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E61">
         <v>123.24041699999999</v>
@@ -18171,16 +18165,16 @@
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B62" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C62" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D62" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E62">
         <v>65.868385000000004</v>
@@ -18281,16 +18275,16 @@
     </row>
     <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B63" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C63" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D63" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E63">
         <v>8.2139009999999999</v>
@@ -18391,16 +18385,16 @@
     </row>
     <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B64" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C64" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D64" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E64">
         <v>4.2989999999999999E-3</v>
@@ -18501,16 +18495,16 @@
     </row>
     <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B65" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C65" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D65" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E65">
         <v>39.342956999999998</v>
@@ -18611,16 +18605,16 @@
     </row>
     <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B66" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C66" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D66" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E66">
         <v>17.099070000000001</v>
@@ -18721,16 +18715,16 @@
     </row>
     <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B67" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C67" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D67" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E67">
         <v>0.85228499999999996</v>
@@ -18831,16 +18825,16 @@
     </row>
     <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B68" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C68" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D68" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E68">
         <v>0.34543099999999999</v>
@@ -18941,16 +18935,16 @@
     </row>
     <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B69" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C69" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D69" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E69">
         <v>1.0442999999999999E-2</v>
@@ -19051,16 +19045,16 @@
     </row>
     <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B70" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C70" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D70" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E70">
         <v>21.389296000000002</v>
@@ -19161,16 +19155,16 @@
     </row>
     <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B71" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C71" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D71" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -19271,16 +19265,16 @@
     </row>
     <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B72" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C72" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D72" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -19381,16 +19375,16 @@
     </row>
     <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B73" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C73" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D73" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E73">
         <v>21.389296000000002</v>
@@ -19491,16 +19485,16 @@
     </row>
     <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B74" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C74" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D74" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -19601,16 +19595,16 @@
     </row>
     <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B75" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C75" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D75" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -19711,16 +19705,16 @@
     </row>
     <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B76" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C76" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D76" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -19821,16 +19815,16 @@
     </row>
     <row r="77" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B77" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C77" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D77" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -19931,16 +19925,16 @@
     </row>
     <row r="78" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B78" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C78" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D78" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E78">
         <v>36.342903</v>
@@ -20041,16 +20035,16 @@
     </row>
     <row r="79" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B79" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C79" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D79" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E79">
         <v>4.0336290000000004</v>
@@ -20151,16 +20145,16 @@
     </row>
     <row r="80" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B80" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C80" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D80" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -20261,16 +20255,16 @@
     </row>
     <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B81" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C81" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D81" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E81">
         <v>31.980073999999998</v>
@@ -20371,16 +20365,16 @@
     </row>
     <row r="82" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B82" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C82" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D82" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E82">
         <v>0.29807400000000001</v>
@@ -20481,16 +20475,16 @@
     </row>
     <row r="83" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B83" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C83" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D83" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E83">
         <v>3.1129E-2</v>
@@ -20591,16 +20585,16 @@
     </row>
     <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B84" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C84" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D84" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -20701,16 +20695,16 @@
     </row>
     <row r="85" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B85" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C85" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D85" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -20814,13 +20808,13 @@
         <v>7</v>
       </c>
       <c r="B86" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C86" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D86" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E86">
         <v>29.437215999999999</v>
@@ -20921,16 +20915,16 @@
     </row>
     <row r="87" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B87" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C87" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D87" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E87">
         <v>5.3958890000000004</v>
@@ -21031,16 +21025,16 @@
     </row>
     <row r="88" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B88" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C88" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D88" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E88">
         <v>0.83852300000000002</v>
@@ -21141,16 +21135,16 @@
     </row>
     <row r="89" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B89" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C89" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D89" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E89">
         <v>4.557366</v>
@@ -21251,16 +21245,16 @@
     </row>
     <row r="90" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B90" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C90" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D90" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -21361,16 +21355,16 @@
     </row>
     <row r="91" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B91" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C91" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D91" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -21471,16 +21465,16 @@
     </row>
     <row r="92" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B92" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C92" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D92" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E92">
         <v>10.374468999999999</v>
@@ -21581,16 +21575,16 @@
     </row>
     <row r="93" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B93" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C93" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D93" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E93">
         <v>10.374468999999999</v>
@@ -21691,16 +21685,16 @@
     </row>
     <row r="94" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B94" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C94" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D94" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E94">
         <v>13.666859000000001</v>
@@ -21801,16 +21795,16 @@
     </row>
     <row r="95" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B95" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C95" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D95" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E95">
         <v>4.51166</v>
@@ -21911,16 +21905,16 @@
     </row>
     <row r="96" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B96" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C96" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D96" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E96">
         <v>9.1551989999999996</v>
@@ -22021,16 +22015,16 @@
     </row>
     <row r="97" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B97" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C97" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D97" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -22131,16 +22125,16 @@
     </row>
     <row r="98" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B98" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C98" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D98" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -22244,13 +22238,13 @@
         <v>5</v>
       </c>
       <c r="B99" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C99" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D99" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E99">
         <v>195.878433</v>
@@ -22351,16 +22345,16 @@
     </row>
     <row r="100" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B100" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C100" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D100" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E100">
         <v>158.50086999999999</v>
@@ -22461,16 +22455,16 @@
     </row>
     <row r="101" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C101" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D101" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E101">
         <v>37.377560000000003</v>
@@ -22574,13 +22568,13 @@
         <v>4</v>
       </c>
       <c r="B102" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C102" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D102" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E102">
         <v>121.224388</v>
@@ -22684,13 +22678,13 @@
         <v>3</v>
       </c>
       <c r="B103" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C103" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D103" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E103">
         <v>706.25012200000003</v>
@@ -22794,13 +22788,13 @@
         <v>2</v>
       </c>
       <c r="B104" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C104" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D104" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E104">
         <v>24641.326172000001</v>
@@ -22923,7 +22917,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <f>'AEO 36'!E1</f>
@@ -23740,7 +23734,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -23838,7 +23832,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -23936,7 +23930,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -24055,7 +24049,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <f>'AEO 36'!E1</f>
@@ -24872,7 +24866,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -24970,7 +24964,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -25068,7 +25062,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -25202,7 +25196,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <v>2019</v>
@@ -26010,7 +26004,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -26111,7 +26105,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -26212,7 +26206,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -26334,7 +26328,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <v>2019</v>
@@ -27142,7 +27136,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -27243,7 +27237,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -27344,7 +27338,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -27466,7 +27460,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <v>2019</v>
@@ -28274,7 +28268,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -28375,7 +28369,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -28476,7 +28470,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -28598,7 +28592,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <f>'Biodiesel Fraction'!D6</f>
@@ -29475,7 +29469,7 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -29573,7 +29567,7 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -29671,7 +29665,7 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -29790,7 +29784,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <f>'Biodiesel Fraction'!D6</f>
@@ -30702,7 +30696,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -30800,7 +30794,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -30898,7 +30892,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -31017,7 +31011,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <f>'AEO 36'!E1</f>
@@ -31834,7 +31828,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -31932,7 +31926,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -32030,7 +32024,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -32149,7 +32143,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <f>'AEO 36'!E1</f>
@@ -32966,7 +32960,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -33064,7 +33058,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -33162,7 +33156,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -33374,38 +33368,38 @@
         <v>2050</v>
       </c>
       <c r="AJ1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D14" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E14">
         <v>2020</v>
@@ -33501,29 +33495,29 @@
         <v>2050</v>
       </c>
       <c r="AJ14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C15" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B16" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C16" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D16" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E16">
         <v>0.457513</v>
@@ -33624,16 +33618,16 @@
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B17" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C17" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D17" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E17">
         <v>0.131216</v>
@@ -33734,16 +33728,16 @@
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C18" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D18" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E18">
         <v>2.434739</v>
@@ -33844,16 +33838,16 @@
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B19" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C19" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D19" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E19">
         <v>1.2289E-2</v>
@@ -33954,16 +33948,16 @@
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B20" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C20" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D20" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E20">
         <v>0.16345499999999999</v>
@@ -34064,16 +34058,16 @@
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B21" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C21" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D21" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E21">
         <v>1.35443</v>
@@ -34174,16 +34168,16 @@
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B22" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C22" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D22" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E22">
         <v>0.90456499999999995</v>
@@ -34284,16 +34278,16 @@
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B23" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C23" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D23" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E23">
         <v>1.331658</v>
@@ -34394,16 +34388,16 @@
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B24" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C24" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D24" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E24">
         <v>1.9976000000000001E-2</v>
@@ -34504,16 +34498,16 @@
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B25" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C25" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D25" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E25">
         <v>1.0152429999999999</v>
@@ -34614,16 +34608,16 @@
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B26" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C26" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D26" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E26">
         <v>0.22708800000000001</v>
@@ -34724,16 +34718,16 @@
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B27" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C27" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D27" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -34834,16 +34828,16 @@
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B28" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C28" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D28" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -34944,16 +34938,16 @@
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B29" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C29" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D29" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E29">
         <v>6.9350999999999996E-2</v>
@@ -35054,16 +35048,16 @@
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B30" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C30" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D30" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E30">
         <v>6.9880490000000002</v>
@@ -35164,16 +35158,16 @@
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B31" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C31" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D31" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E31">
         <v>2.5221589999999998</v>
@@ -35274,16 +35268,16 @@
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B32" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C32" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D32" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E32">
         <v>0.13980699999999999</v>
@@ -35384,16 +35378,16 @@
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B33" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C33" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D33" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E33">
         <v>0.29396</v>
@@ -35494,16 +35488,16 @@
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B34" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C34" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D34" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E34">
         <v>0.20445099999999999</v>
@@ -35604,16 +35598,16 @@
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B35" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C35" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D35" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E35">
         <v>0.16352700000000001</v>
@@ -35714,16 +35708,16 @@
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B36" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C36" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D36" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E36">
         <v>4.0924000000000002E-2</v>
@@ -35824,16 +35818,16 @@
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B37" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C37" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D37" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E37">
         <v>2.9326000000000001E-2</v>
@@ -35934,16 +35928,16 @@
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B38" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C38" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D38" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E38">
         <v>0.73842300000000005</v>
@@ -36044,16 +36038,16 @@
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B39" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C39" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D39" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E39">
         <v>3.0599229999999999</v>
@@ -36154,16 +36148,16 @@
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B40" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C40" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D40" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E40">
         <v>11.343173999999999</v>
@@ -36267,21 +36261,21 @@
         <v>22</v>
       </c>
       <c r="C41" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B42" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C42" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D42" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E42">
         <v>1.1336139999999999</v>
@@ -36382,16 +36376,16 @@
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B43" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C43" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D43" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -36492,16 +36486,16 @@
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B44" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C44" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D44" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E44">
         <v>-9.8394999999999996E-2</v>
@@ -36602,16 +36596,16 @@
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B45" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C45" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D45" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E45">
         <v>1.035218</v>
@@ -36712,32 +36706,32 @@
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C46" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C47" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B48" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C48" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D48" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E48">
         <v>0.28020400000000001</v>
@@ -36838,16 +36832,16 @@
     </row>
     <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B49" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C49" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D49" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E49">
         <v>4.1923000000000002E-2</v>
@@ -36948,16 +36942,16 @@
     </row>
     <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B50" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C50" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D50" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E50">
         <v>1.3036000000000001E-2</v>
@@ -37058,16 +37052,16 @@
     </row>
     <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B51" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C51" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D51" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E51">
         <v>0.225073</v>
@@ -37168,16 +37162,16 @@
     </row>
     <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B52" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C52" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D52" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E52">
         <v>1.73E-4</v>
@@ -37278,16 +37272,16 @@
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B53" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C53" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D53" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E53">
         <v>0.246392</v>
@@ -37388,16 +37382,16 @@
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B54" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C54" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D54" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E54">
         <v>7.3802000000000006E-2</v>
@@ -37498,16 +37492,16 @@
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B55" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C55" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D55" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E55">
         <v>0.16569200000000001</v>
@@ -37608,16 +37602,16 @@
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B56" t="s">
+        <v>380</v>
+      </c>
+      <c r="C56" t="s">
+        <v>423</v>
+      </c>
+      <c r="D56" t="s">
         <v>383</v>
-      </c>
-      <c r="C56" t="s">
-        <v>426</v>
-      </c>
-      <c r="D56" t="s">
-        <v>386</v>
       </c>
       <c r="E56">
         <v>6.8979999999999996E-3</v>
@@ -37755,7 +37749,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <v>2019</v>
@@ -38563,7 +38557,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -38664,7 +38658,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -38765,7 +38759,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -38887,7 +38881,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <v>2019</v>
@@ -39695,7 +39689,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -39796,7 +39790,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -39897,7 +39891,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -40019,7 +40013,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <f>'AEO 36'!E1</f>
@@ -40904,7 +40898,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -41002,7 +40996,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -41100,7 +41094,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -41219,7 +41213,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <f>'Biodiesel Fraction'!D6</f>
@@ -42096,7 +42090,7 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -42194,7 +42188,7 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -42292,7 +42286,7 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -42411,7 +42405,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <f>'Biodiesel Fraction'!D6</f>
@@ -43323,7 +43317,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -43421,7 +43415,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -43519,7 +43513,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -43638,7 +43632,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <f>'AEO 36'!E1</f>
@@ -44455,7 +44449,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -44553,7 +44547,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -44651,7 +44645,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -44770,7 +44764,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <f>'AEO 36'!E1</f>
@@ -45587,7 +45581,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -45685,7 +45679,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -45783,7 +45777,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -45917,7 +45911,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <v>2019</v>
@@ -46725,7 +46719,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -46826,7 +46820,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -46927,7 +46921,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -48563,7 +48557,7 @@
         <v>2020</v>
       </c>
       <c r="C29">
-        <f t="shared" ref="C29:AI29" si="0">E6</f>
+        <f t="shared" ref="C29:AF29" si="0">E6</f>
         <v>2021</v>
       </c>
       <c r="D29">
@@ -48692,7 +48686,7 @@
         <v>4.306397312900468E-2</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" ref="C30:AI30" si="1">E7/(SUMIFS(E8:E15,$B18:$B25,TRUE)+E7)</f>
+        <f t="shared" ref="C30:AF30" si="1">E7/(SUMIFS(E8:E15,$B18:$B25,TRUE)+E7)</f>
         <v>4.9197433477690018E-2</v>
       </c>
       <c r="D30" s="2">
@@ -48839,7 +48833,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <v>2019</v>
@@ -49647,7 +49641,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -49748,7 +49742,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -49849,7 +49843,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -49971,7 +49965,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <v>2019</v>
@@ -50779,7 +50773,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -50880,7 +50874,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -50981,7 +50975,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -51103,7 +51097,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <v>2019</v>
@@ -51911,7 +51905,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -52012,7 +52006,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -52113,7 +52107,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -52235,7 +52229,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <v>2019</v>
@@ -53043,7 +53037,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -53144,7 +53138,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -53245,7 +53239,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -53382,7 +53376,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <v>2019</v>
@@ -54190,7 +54184,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -54291,7 +54285,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -54392,7 +54386,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -54514,7 +54508,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <v>2019</v>
@@ -55322,7 +55316,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -55423,7 +55417,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -55524,7 +55518,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -55646,7 +55640,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <v>2019</v>
@@ -56454,7 +56448,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -56555,7 +56549,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -56656,7 +56650,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -56778,7 +56772,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <v>2019</v>
@@ -57586,7 +57580,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -57687,7 +57681,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -57788,7 +57782,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -57910,7 +57904,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <v>2019</v>
@@ -58718,7 +58712,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -58819,7 +58813,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -58920,7 +58914,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -59054,22 +59048,22 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -59110,7 +59104,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <v>2019</v>
@@ -59918,7 +59912,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -60019,7 +60013,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -60120,7 +60114,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -60242,7 +60236,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <v>2019</v>
@@ -61050,7 +61044,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -61151,7 +61145,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -61252,7 +61246,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -61374,7 +61368,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <v>2019</v>
@@ -62182,7 +62176,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -62283,7 +62277,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -62384,7 +62378,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -62506,7 +62500,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <v>2019</v>
@@ -63314,7 +63308,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -63415,7 +63409,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -63516,7 +63510,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -63638,7 +63632,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <v>2019</v>
@@ -64446,7 +64440,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -64547,7 +64541,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -64648,7 +64642,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -64785,7 +64779,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <v>2019</v>
@@ -65593,7 +65587,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -65694,7 +65688,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -65795,7 +65789,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -65917,7 +65911,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <v>2019</v>
@@ -66725,7 +66719,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -66826,7 +66820,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -66927,7 +66921,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -67049,7 +67043,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <v>2019</v>
@@ -67857,7 +67851,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -67958,7 +67952,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -68059,7 +68053,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -68198,7 +68192,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <v>2019</v>
@@ -69006,7 +69000,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -69107,7 +69101,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -69208,7 +69202,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -69330,7 +69324,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <v>2019</v>
@@ -70138,7 +70132,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -70239,7 +70233,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -70340,7 +70334,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -70477,7 +70471,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <v>2019</v>
@@ -71285,7 +71279,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -71386,7 +71380,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -71487,7 +71481,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -71609,7 +71603,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <v>2019</v>
@@ -72417,7 +72411,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -72518,7 +72512,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -72619,7 +72613,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -72741,7 +72735,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <v>2019</v>
@@ -73549,7 +73543,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -73650,7 +73644,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -73751,7 +73745,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -73873,7 +73867,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <v>2019</v>
@@ -74681,7 +74675,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -74782,7 +74776,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -74883,7 +74877,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -75005,7 +74999,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <v>2019</v>
@@ -75813,7 +75807,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -75914,7 +75908,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -76015,7 +76009,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -76152,7 +76146,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <v>2019</v>
@@ -76960,7 +76954,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -77061,7 +77055,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -77162,7 +77156,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -77282,7 +77276,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <v>2020</v>
@@ -78066,7 +78060,7 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -78164,7 +78158,7 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -78262,7 +78256,7 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -78382,7 +78376,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <v>2019</v>
@@ -79190,7 +79184,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -79291,7 +79285,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -79392,7 +79386,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -79514,7 +79508,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <v>2019</v>
@@ -80322,7 +80316,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -80423,7 +80417,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -80524,7 +80518,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -80648,7 +80642,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <v>2020</v>
@@ -81463,7 +81457,7 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <f>SUM('AEO 36'!E46,'AEO 36'!E51)/SUM('AEO 36'!E45,'AEO 36'!E46,'AEO 36'!E50,'AEO 36'!E51)</f>
@@ -81592,7 +81586,7 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -81690,7 +81684,7 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -81809,7 +81803,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <v>2019</v>
@@ -82617,7 +82611,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -82718,7 +82712,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -82819,7 +82813,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -82956,7 +82950,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <v>2019</v>
@@ -83764,7 +83758,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -83865,7 +83859,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -83966,7 +83960,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -84088,7 +84082,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <v>2019</v>
@@ -84896,7 +84890,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -84997,7 +84991,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -85098,7 +85092,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -85218,7 +85212,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <f>'AEO 36'!E1</f>
@@ -86103,7 +86097,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -86201,7 +86195,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -86299,7 +86293,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -86416,7 +86410,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <f>'Biodiesel Fraction'!D6</f>
@@ -87293,7 +87287,7 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -87391,7 +87385,7 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -87489,7 +87483,7 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -87606,7 +87600,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <f>'AEO 36'!E1</f>
@@ -88522,7 +88516,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -88620,7 +88614,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -88718,7 +88712,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -88837,7 +88831,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <v>2020</v>
@@ -89621,7 +89615,7 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -89719,7 +89713,7 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -89817,7 +89811,7 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -89934,7 +89928,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <f>'AEO 36'!E1</f>
@@ -90751,7 +90745,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -90849,7 +90843,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -90947,7 +90941,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -91064,7 +91058,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <f>'AEO 36'!E1</f>
@@ -91881,7 +91875,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -91979,7 +91973,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -92077,7 +92071,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -92209,7 +92203,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <v>2019</v>
@@ -93017,7 +93011,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -93118,7 +93112,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -93219,7 +93213,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -93341,7 +93335,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <v>2019</v>
@@ -94149,7 +94143,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -94250,7 +94244,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -94351,7 +94345,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -94471,7 +94465,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <f>'BPoEFUbVT-mtrbks-psgr-gasveh'!B1</f>
@@ -95503,7 +95497,7 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -95601,7 +95595,7 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -95699,7 +95693,7 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -95818,7 +95812,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <f>'BPoEFUbVT-mtrbks-psgr-dslveh'!B1</f>
@@ -96850,7 +96844,7 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -96948,7 +96942,7 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -97046,7 +97040,7 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -97165,7 +97159,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <f>'BPoEFUbVT-mtrbks-psgr-plghyb'!B1</f>
@@ -98197,7 +98191,7 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -98295,7 +98289,7 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -98393,7 +98387,7 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -98510,7 +98504,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <f>'AEO 36'!E1</f>
@@ -99327,7 +99321,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -99425,7 +99419,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -99523,7 +99517,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -99631,7 +99625,7 @@
   </sheetPr>
   <dimension ref="A1:AJ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -99640,7 +99634,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <f>'AEO 36'!E1</f>
@@ -100457,7 +100451,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -100555,7 +100549,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -100653,7 +100647,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -100770,7 +100764,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1">
         <f>'AEO 36'!E1</f>
@@ -101655,7 +101649,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -101753,7 +101747,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -101851,7 +101845,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
